--- a/biology/Médecine/Club_Antonin_Artaud/Club_Antonin_Artaud.xlsx
+++ b/biology/Médecine/Club_Antonin_Artaud/Club_Antonin_Artaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Club Antonin Artaud est une structure psychiatrique extra-hospitalière de Bruxelles. Il a été fondé en 1962 entre autres par Jean Raine et le médecin Jacques Bradfer. Dans ces années, plusieurs structures extrahospitalières sont créées afin de moderniser la psychiatrie belge telles que L'Équipe à Anderlecht en 1964, Le Gué en 1968 à Woluwé-Saint-Lambert ou la Free Clinic à Ixelles en 1972.
-Grâce à la présence de Jean Raine, le Club Antonin Artaud a attiré pendant les années 1960 différents membres du champ culturel et universitaire comme l'artiste Marcel Broodthaers, les cinéastes Paul Danblon et Boris Lehman, le professeur de sociologie Robert Kaufmann et le musicien Jean Tournay[1].
+Grâce à la présence de Jean Raine, le Club Antonin Artaud a attiré pendant les années 1960 différents membres du champ culturel et universitaire comme l'artiste Marcel Broodthaers, les cinéastes Paul Danblon et Boris Lehman, le professeur de sociologie Robert Kaufmann et le musicien Jean Tournay.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Disponibles en ligne (téléchargeables en PDF)
 L’art ou la thérapie, Dr François Tirtiaux
